--- a/Python/aapl_output.xlsx
+++ b/Python/aapl_output.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredherber/Desktop/Finance-Portfolio/Python/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B6E82C-B261-4145-A7EF-936A4423A3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projected Revenue" sheetId="1" r:id="rId1"/>
-    <sheet name="Projected EBIT" sheetId="2" r:id="rId2"/>
-    <sheet name="Projected NWC" sheetId="3" r:id="rId3"/>
+    <sheet name="Financials" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Projected Revenue</t>
-  </si>
-  <si>
-    <t>Projected Ebit</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,12 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -97,13 +88,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -141,7 +140,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -175,6 +174,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -209,9 +209,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -384,182 +385,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="26" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2">
-        <v>45657</v>
-      </c>
-      <c r="B2">
-        <v>430274183705.2827</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2">
-        <v>46022</v>
-      </c>
-      <c r="B3">
-        <v>483024050414.8279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2">
-        <v>46387</v>
-      </c>
-      <c r="B4">
-        <v>542240836459.1867</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2">
-        <v>46752</v>
-      </c>
-      <c r="B5">
-        <v>608717359873.5829</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2">
-        <v>47118</v>
-      </c>
-      <c r="B6">
-        <v>683343634963.123</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2">
-        <v>45657</v>
-      </c>
-      <c r="B2">
-        <v>134969202979.982</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2">
-        <v>46022</v>
-      </c>
-      <c r="B3">
-        <v>158351806420.1467</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2">
-        <v>46387</v>
-      </c>
-      <c r="B4">
-        <v>186091186319.4388</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2">
-        <v>46752</v>
-      </c>
-      <c r="B5">
-        <v>219046306777.1332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2">
-        <v>47118</v>
-      </c>
-      <c r="B6">
-        <v>258252249513.0044</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2">
-        <v>45657</v>
-      </c>
-      <c r="B2">
-        <v>-11712449268.78253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2">
-        <v>46022</v>
-      </c>
-      <c r="B3">
-        <v>-1616674008.576294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2">
-        <v>46387</v>
-      </c>
-      <c r="B4">
-        <v>-1770504180.258026</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2">
-        <v>46752</v>
-      </c>
-      <c r="B5">
-        <v>-1939720891.954468</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2">
-        <v>47118</v>
-      </c>
-      <c r="B6">
-        <v>-2125938703.085754</v>
-      </c>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Python/aapl_output.xlsx
+++ b/Python/aapl_output.xlsx
@@ -1,31 +1,332 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredherber/Desktop/Finance-Portfolio/Python/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B6E82C-B261-4145-A7EF-936A4423A3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>EBIT</t>
+  </si>
+  <si>
+    <t>Change in NWC</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>NWC</t>
+  </si>
+  <si>
+    <t>CAPEX</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Current Assets</t>
+  </si>
+  <si>
+    <t>Current Liabilities</t>
+  </si>
+  <si>
+    <t>Accounts Receivable</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Other Current Assets</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Accounts Payable</t>
+  </si>
+  <si>
+    <t>Current Debt</t>
+  </si>
+  <si>
+    <t>Other Current Liabilities</t>
+  </si>
+  <si>
+    <t>2024-12-31   430274183705.28
+Freq: A-DEC, Name: Projected Revenue, dtype: float64</t>
+  </si>
+  <si>
+    <t>2024-12-31   134969202979.98
+Freq: A-DEC, Name: Projected Ebit, dtype: float64</t>
+  </si>
+  <si>
+    <t>2024-12-31   -11712449268.78
+dtype: object</t>
+  </si>
+  <si>
+    <t>2024-12-31   250147031189.97
+Freq: A-DEC, Name: Projected Revenue, dtype: float64</t>
+  </si>
+  <si>
+    <t>2024-12-31   -13454449268.78
+dtype: object</t>
+  </si>
+  <si>
+    <t>2024-12-31   -12120235854.85
+Freq: A-DEC, Name: Projected Revenue, dtype: float64</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>2024-12-31   129178095023.93
+Freq: A-DEC, dtype: float64</t>
+  </si>
+  <si>
+    <t>2024-12-31   142632544292.71
+Freq: A-DEC, dtype: float64</t>
+  </si>
+  <si>
+    <t>2024-12-31   63555138544.54
+Freq: A-DEC, Name: Projected Revenue, dtype: float64</t>
+  </si>
+  <si>
+    <t>2024-12-31   6662386329.90
+Freq: A-DEC, Name: Projected Revenue, dtype: float64</t>
+  </si>
+  <si>
+    <t>2024-12-31   16496547293.92
+Freq: A-DEC, Name: Projected OCA, dtype: float64</t>
+  </si>
+  <si>
+    <t>2024-12-31   35620322855.57
+Freq: A-DEC, dtype: float64</t>
+  </si>
+  <si>
+    <t>2024-12-31   67900528021.92
+Freq: A-DEC, Name: Projected Revenue, dtype: float64</t>
+  </si>
+  <si>
+    <t>2024-12-31   17044132063.17
+Freq: A-DEC, Name: Projected Current Debt, dtype: float64</t>
+  </si>
+  <si>
+    <t>2024-12-31   54372934207.61
+Freq: A-DEC, Name: Projected OCL, dtype: float64</t>
+  </si>
+  <si>
+    <t>2025-12-31   483024050414.83
+Freq: A-DEC, Name: Projected Revenue, dtype: float64</t>
+  </si>
+  <si>
+    <t>2025-12-31   158351806420.15
+Freq: A-DEC, Name: Projected Ebit, dtype: float64</t>
+  </si>
+  <si>
+    <t>2025-12-31   -1616674008.58
+dtype: object</t>
+  </si>
+  <si>
+    <t>2025-12-31   280814040861.40
+Freq: A-DEC, Name: Projected Revenue, dtype: float64</t>
+  </si>
+  <si>
+    <t>2025-12-31   -15071123277.36
+dtype: object</t>
+  </si>
+  <si>
+    <t>2025-12-31   -13606127525.89
+Freq: A-DEC, Name: Projected Revenue, dtype: float64</t>
+  </si>
+  <si>
+    <t>2025-12-31   143885606670.73
+Freq: A-DEC, dtype: float64</t>
+  </si>
+  <si>
+    <t>2025-12-31   158956729948.09
+Freq: A-DEC, dtype: float64</t>
+  </si>
+  <si>
+    <t>2025-12-31   71346740304.28
+Freq: A-DEC, Name: Projected Revenue, dtype: float64</t>
+  </si>
+  <si>
+    <t>2025-12-31   7479167824.54
+Freq: A-DEC, Name: Projected Revenue, dtype: float64</t>
+  </si>
+  <si>
+    <t>2025-12-31   18518956966.35
+Freq: A-DEC, Name: Projected OCA, dtype: float64</t>
+  </si>
+  <si>
+    <t>2025-12-31   39697041575.57
+Freq: A-DEC, dtype: float64</t>
+  </si>
+  <si>
+    <t>2025-12-31   76224856876.19
+Freq: A-DEC, Name: Projected Revenue, dtype: float64</t>
+  </si>
+  <si>
+    <t>2025-12-31   18378088048.77
+Freq: A-DEC, Name: Projected Current Debt, dtype: float64</t>
+  </si>
+  <si>
+    <t>2025-12-31   61038835023.13
+Freq: A-DEC, Name: Projected OCL, dtype: float64</t>
+  </si>
+  <si>
+    <t>2026-12-31   542240836459.19
+Freq: A-DEC, Name: Projected Revenue, dtype: float64</t>
+  </si>
+  <si>
+    <t>2026-12-31   186091186319.44
+Freq: A-DEC, Name: Projected Ebit, dtype: float64</t>
+  </si>
+  <si>
+    <t>2026-12-31   -1770504180.26
+dtype: object</t>
+  </si>
+  <si>
+    <t>2026-12-31   315240701317.88
+Freq: A-DEC, Name: Projected Revenue, dtype: float64</t>
+  </si>
+  <si>
+    <t>2026-12-31   -16841627457.62
+dtype: object</t>
+  </si>
+  <si>
+    <t>2026-12-31   -15274183478.60
+Freq: A-DEC, Name: Projected Revenue, dtype: float64</t>
+  </si>
+  <si>
+    <t>2026-12-31   160381431227.38
+Freq: A-DEC, dtype: float64</t>
+  </si>
+  <si>
+    <t>2026-12-31   177223058684.99
+Freq: A-DEC, dtype: float64</t>
+  </si>
+  <si>
+    <t>2026-12-31   80093560782.33
+Freq: A-DEC, Name: Projected Revenue, dtype: float64</t>
+  </si>
+  <si>
+    <t>2026-12-31   8396083411.82
+Freq: A-DEC, Name: Projected Revenue, dtype: float64</t>
+  </si>
+  <si>
+    <t>2026-12-31   20789305847.52
+Freq: A-DEC, Name: Projected OCA, dtype: float64</t>
+  </si>
+  <si>
+    <t>2026-12-31   44258781185.70
+Freq: A-DEC, dtype: float64</t>
+  </si>
+  <si>
+    <t>2026-12-31   85569714626.07
+Freq: A-DEC, Name: Projected Revenue, dtype: float64</t>
+  </si>
+  <si>
+    <t>2026-12-31   19816445863.97
+Freq: A-DEC, Name: Projected Current Debt, dtype: float64</t>
+  </si>
+  <si>
+    <t>2026-12-31   68521948194.95
+Freq: A-DEC, Name: Projected OCL, dtype: float64</t>
+  </si>
+  <si>
+    <t>2027-12-31   608717359873.58
+Freq: A-DEC, Name: Projected Revenue, dtype: float64</t>
+  </si>
+  <si>
+    <t>2027-12-31   219046306777.13
+Freq: A-DEC, Name: Projected Ebit, dtype: float64</t>
+  </si>
+  <si>
+    <t>2027-12-31   -1939720891.95
+dtype: object</t>
+  </si>
+  <si>
+    <t>2027-12-31   353887930470.10
+Freq: A-DEC, Name: Projected Revenue, dtype: float64</t>
+  </si>
+  <si>
+    <t>2027-12-31   -18781348349.57
+dtype: object</t>
+  </si>
+  <si>
+    <t>2027-12-31   -17146736313.75
+Freq: A-DEC, Name: Projected Revenue, dtype: float64</t>
+  </si>
+  <si>
+    <t>2027-12-31   178883652755.30
+Freq: A-DEC, dtype: float64</t>
+  </si>
+  <si>
+    <t>2027-12-31   197665001104.87
+Freq: A-DEC, dtype: float64</t>
+  </si>
+  <si>
+    <t>2027-12-31   89912705912.49
+Freq: A-DEC, Name: Projected Revenue, dtype: float64</t>
+  </si>
+  <si>
+    <t>2027-12-31   9425409124.65
+Freq: A-DEC, Name: Projected Revenue, dtype: float64</t>
+  </si>
+  <si>
+    <t>2027-12-31   23337990277.06
+Freq: A-DEC, Name: Projected OCA, dtype: float64</t>
+  </si>
+  <si>
+    <t>2027-12-31   49363847441.11
+Freq: A-DEC, dtype: float64</t>
+  </si>
+  <si>
+    <t>2027-12-31   96060213967.74
+Freq: A-DEC, Name: Projected Revenue, dtype: float64</t>
+  </si>
+  <si>
+    <t>2027-12-31   21367376499.54
+Freq: A-DEC, Name: Projected Current Debt, dtype: float64</t>
+  </si>
+  <si>
+    <t>2027-12-31   76922460637.59
+Freq: A-DEC, Name: Projected OCL, dtype: float64</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,21 +389,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -140,7 +433,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -174,7 +467,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -209,10 +501,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -385,25 +676,305 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="26" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="26" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Python/aapl_output.xlsx
+++ b/Python/aapl_output.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
+    <sheet name="Valuation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Projected Revenue</t>
   </si>
@@ -34,39 +35,35 @@
     <t>Projected Depreciation</t>
   </si>
   <si>
-    <t>Projected Current Assets</t>
-  </si>
-  <si>
-    <t>Projected Current Liabilities</t>
-  </si>
-  <si>
-    <t>Projected Accounts Receivable</t>
-  </si>
-  <si>
-    <t>Projected Inventory</t>
-  </si>
-  <si>
-    <t>Projected Other Current Assets</t>
-  </si>
-  <si>
-    <t>Projected Cash</t>
-  </si>
-  <si>
-    <t>Projected Accounts Payable</t>
-  </si>
-  <si>
-    <t>Projected Current Debt</t>
-  </si>
-  <si>
-    <t>Projected Other Current Liabilities</t>
+    <t>Free Cash Flow</t>
+  </si>
+  <si>
+    <t>Terminal Value</t>
+  </si>
+  <si>
+    <t>Enterprise Value</t>
+  </si>
+  <si>
+    <t>Shares Outstanding</t>
+  </si>
+  <si>
+    <t>Current Price Per Share</t>
+  </si>
+  <si>
+    <t>Intrinsic Price Per Share</t>
+  </si>
+  <si>
+    <t>Intrinsic Upside/Downside</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="$#,##0"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -120,9 +117,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -422,331 +421,230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="26" width="20.7109375" customWidth="1"/>
+    <col min="2" max="6" width="20.7109375" style="1" customWidth="1"/>
+    <col min="7" max="26" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1">
+      <c r="B1" s="3">
         <v>45657</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="3">
         <v>46022</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="3">
         <v>46387</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="3">
         <v>46752</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="3">
         <v>47118</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>430274183705.2827</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>483024050414.8279</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>542240836459.1867</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>608717359873.5829</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>683343634963.123</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>134969202979.982</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>158351806420.1467</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>186091186319.4388</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>219046306777.1332</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>258252249513.0044</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>-11712449268.78253</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>-1616674008.576294</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>-1770504180.258026</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>-1939720891.954468</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>-2125938703.085754</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>250147031189.9681</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>280814040861.4044</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>315240701317.8776</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>353887930470.0955</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>397273152891.9007</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>-12120235854.85129</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>-13606127525.89231</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>-15274183478.59502</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>-17146736313.75396</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>-19248856518.28329</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>11240750000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>11240750000</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>11240750000</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>11240750000</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>11240750000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>129178095023.9256</v>
-      </c>
-      <c r="C8">
-        <v>143885606670.7325</v>
-      </c>
-      <c r="D8">
-        <v>160381431227.3768</v>
-      </c>
-      <c r="E8">
-        <v>178883652755.3028</v>
-      </c>
-      <c r="F8">
-        <v>199637001074.5584</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="1">
+        <v>130901569239.421</v>
+      </c>
+      <c r="C8" s="1">
+        <v>138893334092.7728</v>
+      </c>
+      <c r="D8" s="1">
+        <v>160410179945.6546</v>
+      </c>
+      <c r="E8" s="1">
+        <v>185850085017.473</v>
+      </c>
+      <c r="F8" s="1">
+        <v>215974642375.6022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="2" customWidth="1"/>
+    <col min="4" max="26" width="30.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>142632544292.7082</v>
-      </c>
-      <c r="C9">
-        <v>158956729948.0914</v>
-      </c>
-      <c r="D9">
-        <v>177223058684.9937</v>
-      </c>
-      <c r="E9">
-        <v>197665001104.8741</v>
-      </c>
-      <c r="F9">
-        <v>220544288127.2155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>63555138544.53584</v>
-      </c>
-      <c r="C10">
-        <v>71346740304.2809</v>
-      </c>
-      <c r="D10">
-        <v>80093560782.33495</v>
-      </c>
-      <c r="E10">
-        <v>89912705912.4897</v>
-      </c>
-      <c r="F10">
-        <v>100935638340.2159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>6662386329.901885</v>
-      </c>
-      <c r="C11">
-        <v>7479167824.537269</v>
-      </c>
-      <c r="D11">
-        <v>8396083411.8152</v>
-      </c>
-      <c r="E11">
-        <v>9425409124.646801</v>
-      </c>
-      <c r="F11">
-        <v>10580925987.70034</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>16496547293.91739</v>
-      </c>
-      <c r="C12">
-        <v>18518956966.34592</v>
-      </c>
-      <c r="D12">
-        <v>20789305847.52273</v>
-      </c>
-      <c r="E12">
-        <v>23337990277.05832</v>
-      </c>
-      <c r="F12">
-        <v>26199133062.29853</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>35620322855.57051</v>
-      </c>
-      <c r="C13">
-        <v>39697041575.56847</v>
-      </c>
-      <c r="D13">
-        <v>44258781185.70392</v>
-      </c>
-      <c r="E13">
-        <v>49363847441.10793</v>
-      </c>
-      <c r="F13">
-        <v>55077603684.34373</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>67900528021.92094</v>
-      </c>
-      <c r="C14">
-        <v>76224856876.18794</v>
-      </c>
-      <c r="D14">
-        <v>85569714626.07141</v>
-      </c>
-      <c r="E14">
-        <v>96060213967.74425</v>
-      </c>
-      <c r="F14">
-        <v>107836805905.5949</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>17044132063.17316</v>
-      </c>
-      <c r="C15">
-        <v>18378088048.76873</v>
-      </c>
-      <c r="D15">
-        <v>19816445863.97409</v>
-      </c>
-      <c r="E15">
-        <v>21367376499.54425</v>
-      </c>
-      <c r="F15">
-        <v>23039690447.38247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>54372934207.61408</v>
-      </c>
-      <c r="C16">
-        <v>61038835023.13471</v>
-      </c>
-      <c r="D16">
-        <v>68521948194.94817</v>
-      </c>
-      <c r="E16">
-        <v>76922460637.58557</v>
-      </c>
-      <c r="F16">
-        <v>86352841774.23814</v>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>5927010367473.105</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3966998068640.988</v>
+      </c>
+      <c r="C2" s="2">
+        <v>15204100096</v>
+      </c>
+      <c r="D2" s="1">
+        <v>230.8262023925781</v>
+      </c>
+      <c r="E2" s="1">
+        <v>260.9163346461165</v>
+      </c>
+      <c r="F2" s="1">
+        <v>30.09013225353834</v>
       </c>
     </row>
   </sheetData>
